--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21 ANÁLISIS VERTICAL DE BALANCE GENERAL.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21 ANÁLISIS VERTICAL DE BALANCE GENERAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1FBBDE-A57B-4F95-BC4B-DD84D6F7A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E93019-5410-41AE-9408-E09697EF4B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
